--- a/data/trans_dic/P19D_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19D_R-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0453711965164854</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0296633477472534</v>
+        <v>0.02966334774725339</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03103175081692446</v>
@@ -685,7 +685,7 @@
         <v>0.04596037942182798</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0223521617772038</v>
+        <v>0.02235216177720379</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04003409199374864</v>
@@ -697,7 +697,7 @@
         <v>0.04563606624866102</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.02622200880732505</v>
+        <v>0.02622200880732504</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02790370255277583</v>
+        <v>0.02796239696656423</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01796248343195343</v>
+        <v>0.01570438468030363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02799841931186692</v>
+        <v>0.02727108058313141</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01679621536043239</v>
+        <v>0.01697041162242307</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01497740251844194</v>
+        <v>0.0151639794471036</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02659518340095119</v>
+        <v>0.02653032042673965</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02654918288696672</v>
+        <v>0.02624335076778403</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01330166289885396</v>
+        <v>0.01322346447184522</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02664885215436594</v>
+        <v>0.02748296112223475</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02622968227447065</v>
+        <v>0.02523911294726762</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.03148449350608625</v>
+        <v>0.03219784414944576</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01783785227350446</v>
+        <v>0.01773785629000362</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07697119916442118</v>
+        <v>0.07589507761679834</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05830604068191921</v>
+        <v>0.05296113186649658</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.07128871289326778</v>
+        <v>0.07152866035271255</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04939779554027086</v>
+        <v>0.04997931845038137</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06155660883480275</v>
+        <v>0.06011380137074078</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08058010692734173</v>
+        <v>0.08390798788612194</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07558236081522256</v>
+        <v>0.0768915147011546</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.034264460258708</v>
+        <v>0.03530897828092756</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05983911960024247</v>
+        <v>0.06152981499233378</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.05932888511166166</v>
+        <v>0.05796030395814068</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.06500638408625641</v>
+        <v>0.06546587405583713</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03893087044138609</v>
+        <v>0.038500698000136</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.0685131684982377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.0326328134309552</v>
+        <v>0.03263281343095519</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0356538684658858</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03172100251753344</v>
+        <v>0.02887836174401197</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05715675583380609</v>
+        <v>0.05610983811400178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04258013833230156</v>
+        <v>0.04384477914789192</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01969076175502686</v>
+        <v>0.01977152166118628</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02015286171427615</v>
+        <v>0.02015083795224876</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04081524066390826</v>
+        <v>0.03927770270299386</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03284043287386088</v>
+        <v>0.03174514522332503</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01562883456607259</v>
+        <v>0.01606870512902463</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02851844726314778</v>
+        <v>0.02811152731410146</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.05669090696887018</v>
+        <v>0.0546395652163578</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04324221242136998</v>
+        <v>0.04400090482379542</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02111221083406158</v>
+        <v>0.02161065238073276</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09339936153950473</v>
+        <v>0.09271490240050978</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1192394173662296</v>
+        <v>0.1236365014665871</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1014689782605725</v>
+        <v>0.10152928062315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05333807958384737</v>
+        <v>0.05345609991882571</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05818982069525733</v>
+        <v>0.05996355451661319</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09895983700567448</v>
+        <v>0.100612139279222</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08536232517640156</v>
+        <v>0.08501385220707318</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.04289158888671834</v>
+        <v>0.04310520892964981</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0639909392705878</v>
+        <v>0.06504395454517782</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09988097657942516</v>
+        <v>0.09959127723839398</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08177860505979459</v>
+        <v>0.08316854639195936</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04282173620934059</v>
+        <v>0.04206711891964696</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0495036350358251</v>
+        <v>0.05070021002774013</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09501952021226751</v>
+        <v>0.1008605295031892</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06495720520034771</v>
+        <v>0.06592818246505358</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05739607912622937</v>
+        <v>0.05757974352059722</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03005384613798014</v>
+        <v>0.02919726827445077</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03387708494032479</v>
+        <v>0.03316666530872846</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.05917652703767404</v>
+        <v>0.05815613555394296</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02004288249627983</v>
+        <v>0.02025989635277852</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05027629643877021</v>
+        <v>0.05107123049838861</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08611279469319705</v>
+        <v>0.08473207135539682</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.07019004338671256</v>
+        <v>0.07066993849496277</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05119844959253749</v>
+        <v>0.05057819690773077</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09828449073325496</v>
+        <v>0.09669210479878466</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1602522043733078</v>
+        <v>0.1615255817963085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1210096603553383</v>
+        <v>0.1257463159931944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1147911201886368</v>
+        <v>0.1138029181844491</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.114799745490124</v>
+        <v>0.116974913528869</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09628610109415556</v>
+        <v>0.09805565889792464</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1611206777677611</v>
+        <v>0.1643997254122665</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07041215584395472</v>
+        <v>0.07199207120709025</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09271011508601161</v>
+        <v>0.0928330823904432</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1330277261720603</v>
+        <v>0.1313316269147811</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1220389783149682</v>
+        <v>0.1221525918900007</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09293564948990295</v>
+        <v>0.09400673808857749</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.08430005549063553</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09156374047667654</v>
+        <v>0.09156374047667652</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06642914661477851</v>
@@ -1105,7 +1105,7 @@
         <v>0.09074219718774397</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07081576061856193</v>
+        <v>0.07081576061856196</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06297630947909619</v>
+        <v>0.06213523619666789</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1573294077862249</v>
+        <v>0.1580302272882732</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06632389651985229</v>
+        <v>0.06716359737394351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07510209071970869</v>
+        <v>0.0752274578803938</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04806498484533443</v>
+        <v>0.04772244483374489</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07430813410214378</v>
+        <v>0.07526112946183633</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08021168292293833</v>
+        <v>0.07890358870001063</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03330425571988947</v>
+        <v>0.03370044217672742</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.061161756969407</v>
+        <v>0.059640039366963</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1296700366426679</v>
+        <v>0.128181930107655</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.0761649139255156</v>
+        <v>0.0761527052824422</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06003875145651325</v>
+        <v>0.05976382301246966</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09986631750085156</v>
+        <v>0.09886428514805294</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2092669945407246</v>
+        <v>0.2079405466290354</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1041890435973196</v>
+        <v>0.1050950830516847</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1124494317562039</v>
+        <v>0.1114215751602786</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.09139195455781948</v>
+        <v>0.09010898244497396</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1203207641199651</v>
+        <v>0.1214095369906371</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.127994074823733</v>
+        <v>0.1271761918847854</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05842311799893881</v>
+        <v>0.05871966230633308</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08985929472602501</v>
+        <v>0.08706280087572671</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1649364753521477</v>
+        <v>0.1646551811852978</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1067616753763417</v>
+        <v>0.106109630716307</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08424171138050709</v>
+        <v>0.08406677202303744</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1515445830994315</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1884526153838782</v>
+        <v>0.1884526153838783</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07180399956376883</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.105869696917396</v>
+        <v>0.1061975400144295</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1669248350001629</v>
+        <v>0.1694874557918853</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1197676694481511</v>
+        <v>0.1172841419376031</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1533472679440978</v>
+        <v>0.1522495854776392</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.04930236053662754</v>
+        <v>0.04885887886840338</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1349886570982127</v>
+        <v>0.1375702645887286</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07566731850234329</v>
+        <v>0.07494578867533021</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07406891603357335</v>
+        <v>0.07470352210959898</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07987806691777397</v>
+        <v>0.07831953252199658</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1560480647385386</v>
+        <v>0.1587426731905268</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1001633850517989</v>
+        <v>0.102907357304633</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1106952606740128</v>
+        <v>0.1107556807484052</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1924221447023498</v>
+        <v>0.1929831387145148</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.246129262622328</v>
+        <v>0.2530631402461355</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1884926453754548</v>
+        <v>0.1940720451567219</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2284267766027082</v>
+        <v>0.227366006013967</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.101978111639543</v>
+        <v>0.09963683178151192</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.193064591037296</v>
+        <v>0.1931373299140956</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1258961987009052</v>
+        <v>0.123565326758682</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1067045927557252</v>
+        <v>0.109059738951531</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1232073867760075</v>
+        <v>0.1232525453941742</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.203678123509754</v>
+        <v>0.2047263767142278</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1428898074688815</v>
+        <v>0.145150904285769</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1495235624813928</v>
+        <v>0.1477523412678184</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.1299414814444083</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.06479355285893641</v>
+        <v>0.06479355285893643</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.08734689629576189</v>
@@ -1365,7 +1365,7 @@
         <v>0.1003686495805127</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.07721355359051209</v>
+        <v>0.0772135535905121</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07692217307161704</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.0128286073414376</v>
+        <v>0.01329210619858681</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.06299934193372608</v>
+        <v>0.0629340485881776</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.09224900958858334</v>
+        <v>0.08706239803152828</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.02680218658817841</v>
+        <v>0.0284182850440295</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07113017966757694</v>
+        <v>0.07039366161741814</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1086109365394136</v>
+        <v>0.1093860666817821</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07931582544344702</v>
+        <v>0.08101027585703754</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06139733400057314</v>
+        <v>0.06098676705344761</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.06076127348702495</v>
+        <v>0.06289554549762315</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1038956996822542</v>
+        <v>0.103559194361039</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.08873503629117875</v>
+        <v>0.08859757316889338</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.0597389932905022</v>
+        <v>0.05750076439565034</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05854767619846579</v>
+        <v>0.06072363897259585</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1492556659428736</v>
+        <v>0.1403769452111172</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1787215537553376</v>
+        <v>0.1786116062003585</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1344346326374629</v>
+        <v>0.1390727001468766</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1058083984194257</v>
+        <v>0.1061264846182453</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1545486663737959</v>
+        <v>0.1526200518106957</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1217675168314384</v>
+        <v>0.1227816273863597</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.09611279798653083</v>
+        <v>0.09509209855388599</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0919480533022978</v>
+        <v>0.0924088962758642</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1404681065876</v>
+        <v>0.141470372011407</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1272546066546887</v>
+        <v>0.1258078405371945</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.0958401728099196</v>
+        <v>0.09348639751029807</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.09039052195867441</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07010772915002138</v>
+        <v>0.07010772915002136</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06132542682353696</v>
+        <v>0.06221743026180909</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1240633492932492</v>
+        <v>0.1225614439725211</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08317291624798219</v>
+        <v>0.08191166438383329</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07459031129130055</v>
+        <v>0.07429944722412168</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05827181297738385</v>
+        <v>0.05793230228705275</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09790304258258439</v>
+        <v>0.09844254853048194</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.07784341673879545</v>
+        <v>0.07806031815941339</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.05097810350829263</v>
+        <v>0.05091511765851318</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06272238407210544</v>
+        <v>0.06253018446256156</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1138152371946642</v>
+        <v>0.1132156176727339</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08292288825853825</v>
+        <v>0.08268917985185543</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06357331035158094</v>
+        <v>0.06439051363845422</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.0828209032657666</v>
+        <v>0.08338384024587538</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1512574703505252</v>
+        <v>0.1493288908792486</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1050902949217661</v>
+        <v>0.1035186865722011</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09655727675942422</v>
+        <v>0.09587322377718165</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07788272376109578</v>
+        <v>0.07786406409368188</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1207076837089867</v>
+        <v>0.1222869635569615</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09978184257908999</v>
+        <v>0.0993728750456984</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.06410066622769915</v>
+        <v>0.06399649619650308</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07703419313886034</v>
+        <v>0.07646227591204324</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1309293385799921</v>
+        <v>0.1321218387990333</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.09866912619487424</v>
+        <v>0.09857745536297893</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0761471739747985</v>
+        <v>0.07639499198423817</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10821</v>
+        <v>10844</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7064</v>
+        <v>6176</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>10827</v>
+        <v>10546</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9130</v>
+        <v>9225</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4018</v>
+        <v>4068</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>7766</v>
+        <v>7747</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8385</v>
+        <v>8288</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>6430</v>
+        <v>6392</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17484</v>
+        <v>18031</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>17974</v>
+        <v>17295</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>22118</v>
+        <v>22619</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>18319</v>
+        <v>18216</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29850</v>
+        <v>29433</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22928</v>
+        <v>20826</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27567</v>
+        <v>27660</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>26851</v>
+        <v>27167</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16515</v>
+        <v>16128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23530</v>
+        <v>24501</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23870</v>
+        <v>24284</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>16563</v>
+        <v>17068</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39260</v>
+        <v>40369</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>40655</v>
+        <v>39717</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>45668</v>
+        <v>45990</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>39980</v>
+        <v>39538</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9523</v>
+        <v>8669</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21874</v>
+        <v>21473</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>13439</v>
+        <v>13838</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9454</v>
+        <v>9493</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>6722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12796</v>
+        <v>12314</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10955</v>
+        <v>10589</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>6520</v>
+        <v>6703</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>18074</v>
+        <v>17816</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>39468</v>
+        <v>38040</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>28072</v>
+        <v>28565</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>18944</v>
+        <v>19391</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>28039</v>
+        <v>27833</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>45632</v>
+        <v>47315</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>32025</v>
+        <v>32044</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>25609</v>
+        <v>25666</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19410</v>
+        <v>20002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31024</v>
+        <v>31542</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>28475</v>
+        <v>28358</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>17893</v>
+        <v>17982</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>40556</v>
+        <v>41223</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>69537</v>
+        <v>69335</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>53090</v>
+        <v>53992</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>38424</v>
+        <v>37747</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21300</v>
+        <v>21815</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>50793</v>
+        <v>53916</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>26321</v>
+        <v>26715</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>26678</v>
+        <v>26764</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4210</v>
+        <v>4090</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8156</v>
+        <v>7985</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>8250</v>
+        <v>8108</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>3731</v>
+        <v>3771</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28674</v>
+        <v>29128</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>66765</v>
+        <v>65694</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>38228</v>
+        <v>38489</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>33328</v>
+        <v>32924</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42289</v>
+        <v>41603</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>85664</v>
+        <v>86345</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>49034</v>
+        <v>50954</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>53356</v>
+        <v>52897</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16080</v>
+        <v>16384</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23182</v>
+        <v>23608</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>22464</v>
+        <v>22921</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13107</v>
+        <v>13401</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>52876</v>
+        <v>52946</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>103139</v>
+        <v>101824</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>66466</v>
+        <v>66528</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>60496</v>
+        <v>61194</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>54934</v>
+        <v>54200</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>152559</v>
+        <v>153239</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>58332</v>
+        <v>59071</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>82317</v>
+        <v>82454</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28659</v>
+        <v>28454</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>51707</v>
+        <v>52370</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>54867</v>
+        <v>53973</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27822</v>
+        <v>28153</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>89819</v>
+        <v>87584</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>215968</v>
+        <v>213490</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>119087</v>
+        <v>119067</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>115963</v>
+        <v>115432</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>87113</v>
+        <v>86239</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>202922</v>
+        <v>201636</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>91635</v>
+        <v>92432</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>123252</v>
+        <v>122126</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>54492</v>
+        <v>53727</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>83724</v>
+        <v>84482</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>87552</v>
+        <v>86992</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>48807</v>
+        <v>49054</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>131962</v>
+        <v>127855</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>274705</v>
+        <v>274237</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>166926</v>
+        <v>165906</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>162710</v>
+        <v>162372</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>26248</v>
+        <v>26329</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>67162</v>
+        <v>68193</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>50922</v>
+        <v>49866</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>77914</v>
+        <v>77356</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>22486</v>
+        <v>22284</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>90675</v>
+        <v>92409</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>42183</v>
+        <v>41781</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>58997</v>
+        <v>59503</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>56235</v>
+        <v>55137</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>167607</v>
+        <v>170502</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>98426</v>
+        <v>101122</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>144414</v>
+        <v>144493</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>47707</v>
+        <v>47846</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>99030</v>
+        <v>101820</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>80141</v>
+        <v>82513</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>116061</v>
+        <v>115522</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>46510</v>
+        <v>45442</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>129686</v>
+        <v>129735</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>70185</v>
+        <v>68885</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>84992</v>
+        <v>86868</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>86739</v>
+        <v>86771</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>218766</v>
+        <v>219891</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>140411</v>
+        <v>142633</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>195069</v>
+        <v>192759</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2723</v>
+        <v>2821</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>13995</v>
+        <v>13980</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>22283</v>
+        <v>21030</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>5965</v>
+        <v>6325</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>67262</v>
+        <v>66565</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>100528</v>
+        <v>101246</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>65358</v>
+        <v>66754</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>50129</v>
+        <v>49793</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>70352</v>
+        <v>72824</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>119244</v>
+        <v>118857</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>94553</v>
+        <v>94407</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>62070</v>
+        <v>59744</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12426</v>
+        <v>12888</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>33156</v>
+        <v>31184</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>43170</v>
+        <v>43143</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>29919</v>
+        <v>30951</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>100054</v>
+        <v>100355</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>143047</v>
+        <v>141262</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>100339</v>
+        <v>101174</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>78472</v>
+        <v>77639</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>106462</v>
+        <v>106996</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>161219</v>
+        <v>162369</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>135598</v>
+        <v>134057</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>99579</v>
+        <v>97134</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>150292</v>
+        <v>152478</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>360362</v>
+        <v>356000</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>220719</v>
+        <v>217372</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>247284</v>
+        <v>246319</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>159657</v>
+        <v>158727</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>307358</v>
+        <v>309052</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>222192</v>
+        <v>222811</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>180211</v>
+        <v>179989</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>325566</v>
+        <v>324569</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>687908</v>
+        <v>684284</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>456746</v>
+        <v>455459</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>435496</v>
+        <v>441094</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>202972</v>
+        <v>204351</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>439352</v>
+        <v>433750</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>278882</v>
+        <v>274711</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>320109</v>
+        <v>317841</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>213388</v>
+        <v>213337</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>378952</v>
+        <v>383910</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>284812</v>
+        <v>283644</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>226601</v>
+        <v>226232</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>399853</v>
+        <v>396885</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>791347</v>
+        <v>798555</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>543477</v>
+        <v>542972</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>521631</v>
+        <v>523329</v>
       </c>
     </row>
     <row r="32">
